--- a/data_group/levene_test_temp_results.xlsx
+++ b/data_group/levene_test_temp_results.xlsx
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.8665543645534335</v>
+        <v>0.8319745786607442</v>
       </c>
     </row>
     <row r="3">
@@ -401,7 +401,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.8442128446517904</v>
+        <v>0.8000023521273365</v>
       </c>
     </row>
     <row r="4">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.8409158014798792</v>
+        <v>0.8130690993739125</v>
       </c>
     </row>
     <row r="5">
@@ -431,7 +431,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>0.8998354552468246</v>
+        <v>0.8760909687160643</v>
       </c>
     </row>
     <row r="6">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>0.8402337031309588</v>
+        <v>0.8212913441686165</v>
       </c>
     </row>
     <row r="7">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>0.4221915497295508</v>
+        <v>0.2748377077066544</v>
       </c>
     </row>
     <row r="13">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>0.5317589699955478</v>
+        <v>0.3658357788254687</v>
       </c>
     </row>
     <row r="14">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>0.5465214310516444</v>
+        <v>0.4148239819621311</v>
       </c>
     </row>
     <row r="15">
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>0.6321777944163518</v>
+        <v>0.5440634895168599</v>
       </c>
     </row>
     <row r="16">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.6364323544311112</v>
+        <v>0.6062546662065174</v>
       </c>
     </row>
     <row r="17">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>0.6503819468975203</v>
+        <v>0.4358715264172363</v>
       </c>
     </row>
     <row r="23">
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>0.6700888285008936</v>
+        <v>0.485037281586714</v>
       </c>
     </row>
     <row r="24">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>0.7206935032394717</v>
+        <v>0.6153053299741456</v>
       </c>
     </row>
     <row r="25">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>0.7460423355449703</v>
+        <v>0.676671900342492</v>
       </c>
     </row>
     <row r="26">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>0.9928429583225036</v>
+        <v>0.9904850901825673</v>
       </c>
     </row>
     <row r="27">
